--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Myasthenia gravis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Myasthenia gravis_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fluctuating muscle weakness</t>
+          <t>Fluctuating muscle weakness that worsens with activity and improves with rest</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a hallmark symptom of Myasthenia gravis, where muscle strength varies throughout the day or with activity.</t>
+          <t>This is a classic symptom of Myasthenia gravis due to the autoimmune attack on acetylcholine receptors, leading to muscle fatigue.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of bulbar symptoms</t>
+          <t>Muscle weakness that is constant and does not fluctuate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bulbar symptoms such as dysphagia or dysarthria are common in Myasthenia gravis; their absence suggests a lower likelihood of the disease.</t>
+          <t>Constant muscle weakness is less characteristic of Myasthenia gravis, which typically presents with fluctuating weakness.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ocular symptoms such as ptosis or diplopia</t>
+          <t>Ptosis that worsens throughout the day</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ocular manifestations are common in Myasthenia gravis, often presenting as drooping eyelids or double vision.</t>
+          <t>Ptosis, or drooping of the eyelids, that worsens with fatigue is highly suggestive of Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stable muscle strength throughout the day</t>
+          <t>No ocular symptoms present</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with Myasthenia gravis typically experience fluctuating weakness; stable muscle strength contradicts this characteristic.</t>
+          <t>The absence of ocular symptoms like ptosis or diplopia makes Myasthenia gravis less likely, as these are common initial symptoms.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Symptoms worsening with exertion</t>
+          <t>Diplopia that varies with time of day</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In Myasthenia gravis, muscle weakness typically worsens with prolonged activity, which is a key characteristic of the disease.</t>
+          <t>Double vision that fluctuates is indicative of ocular muscle involvement, common in Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Weakness improves with exercise</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of family history of autoimmune conditions may suggest a lower risk for Myasthenia gravis, which has an autoimmune component.</t>
+          <t>Improvement of weakness with exercise is contrary to the typical presentation of Myasthenia gravis, where exercise exacerbates symptoms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Improvement of symptoms with rest</t>
+          <t>Difficulty swallowing that worsens with repeated attempts</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with Myasthenia gravis often experience relief of symptoms after periods of rest, indicating the fluctuating nature of the condition.</t>
+          <t>Dysphagia that increases with use is consistent with the muscle fatigue seen in Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms not exacerbated by heat</t>
+          <t>No bulbar symptoms such as dysphagia or dysarthria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>In Myasthenia gravis, symptoms can worsen with heat; if symptoms improve or remain unchanged in heat, it argues against the diagnosis.</t>
+          <t>The absence of bulbar symptoms reduces the likelihood of Myasthenia gravis, which often affects these muscle groups.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of symptoms in a younger adult</t>
+          <t>Proximal muscle weakness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myasthenia gravis commonly presents in younger adults, particularly women, making this demographic detail supportive of the diagnosis.</t>
+          <t>Weakness in proximal muscles, such as those in the shoulders and hips, is a common presentation in Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of other neurological signs</t>
+          <t>Symptoms improve with rest but do not worsen with activity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The presence of neurological signs not typical of Myasthenia gravis may indicate an alternative diagnosis, as Myasthenia gravis is primarily characterized by muscle weakness without other neurological deficits.</t>
+          <t>While improvement with rest is typical, the lack of worsening with activity is atypical for Myasthenia gravis.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of autoimmune disorders</t>
+          <t>History of fluctuating muscle weakness</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myasthenia gravis is an autoimmune condition, and patients often have a history of other autoimmune diseases, which supports the diagnosis.</t>
+          <t>Fluctuating muscle weakness is a hallmark symptom of Myasthenia gravis, often worsening with activity and improving with rest.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of muscle weakness or fatigue</t>
+          <t>Long-term use of corticosteroids without improvement</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of these hallmark symptoms makes Myasthenia gravis unlikely.</t>
+          <t>Corticosteroids are often used to manage Myasthenia gravis, and lack of improvement may suggest an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of thymoma or thymic hyperplasia</t>
+          <t>Use of pyridostigmine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thymic abnormalities are commonly associated with Myasthenia gravis, making this a strong indicator for the diagnosis.</t>
+          <t>Pyridostigmine is a medication commonly used to treat Myasthenia gravis by improving neuromuscular transmission.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous diagnosis of autoimmune disorders</t>
+          <t>History of muscle weakness not improving with rest</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of autoimmune conditions reduces the likelihood of Myasthenia gravis being present.</t>
+          <t>In Myasthenia gravis, muscle weakness typically improves with rest, so persistent weakness despite rest may indicate another condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of medications that can exacerbate muscle weakness (e.g., certain antibiotics, beta-blockers)</t>
+          <t>Previous thymectomy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain medications can worsen symptoms in Myasthenia gravis patients, indicating a potential diagnosis.</t>
+          <t>Thymectomy is a surgical procedure often performed in patients with Myasthenia gravis, especially if a thymoma is present.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of medications known to exacerbate muscle weakness</t>
+          <t>No response to pyridostigmine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not using these medications suggests a lower risk for Myasthenia gravis.</t>
+          <t>Pyridostigmine is effective in treating Myasthenia gravis, so lack of response may suggest a different diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of Myasthenia gravis or other autoimmune diseases</t>
+          <t>History of ocular symptoms like ptosis or diplopia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Genetic predisposition plays a role in autoimmune diseases, and a family history increases the likelihood of Myasthenia gravis.</t>
+          <t>Ocular symptoms such as ptosis (drooping eyelids) and diplopia (double vision) are common initial presentations in Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of Myasthenia gravis or related autoimmune diseases</t>
+          <t>History of progressive muscle weakness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of family history decreases the genetic predisposition for Myasthenia gravis.</t>
+          <t>Progressive muscle weakness without fluctuation is less characteristic of Myasthenia gravis and may suggest a different neuromuscular disorder.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior surgical history involving the thymus gland</t>
+          <t>History of autoimmune disorders</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Surgical interventions on the thymus are often related to the management of Myasthenia gravis, supporting the diagnosis.</t>
+          <t>Myasthenia gravis is an autoimmune disorder and often coexists with other autoimmune conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No surgical history involving the thymus gland</t>
+          <t>History of muscle atrophy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of thymic surgery suggests a lower likelihood of Myasthenia gravis.</t>
+          <t>Muscle atrophy is not typical in Myasthenia gravis, which usually presents with weakness without atrophy.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Family history of Myasthenia gravis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myasthenia gravis has a genetic component, and a family history of autoimmune diseases increases the likelihood of developing it.</t>
+          <t>A family history of Myasthenia gravis increases the likelihood of the disease due to potential genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of Myasthenia gravis or related autoimmune diseases</t>
+          <t>No family history of Myasthenia gravis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of family history reduces the likelihood of genetic predisposition to Myasthenia gravis.</t>
+          <t>The absence of a family history of Myasthenia gravis reduces the likelihood of a genetic predisposition to the disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of thymoma or thymic hyperplasia</t>
+          <t>Family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thymic abnormalities are commonly associated with Myasthenia gravis, and a personal or family history of these conditions supports the diagnosis.</t>
+          <t>Myasthenia gravis is an autoimmune disorder, and a family history of autoimmune diseases can suggest a genetic susceptibility to similar conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engagement in regular physical activity without symptoms</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular physical activity without exacerbation of symptoms suggests a lower likelihood of Myasthenia gravis.</t>
+          <t>Without a family history of autoimmune diseases, the likelihood of having Myasthenia gravis, an autoimmune condition, is reduced.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Participation in activities that may lead to increased stress or fatigue</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stress and fatigue can exacerbate symptoms of Myasthenia gravis, making it more likely for individuals engaged in such activities to experience the condition.</t>
+          <t>Myasthenia gravis is more common in females, particularly in younger age groups, which can increase the likelihood of the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of thymic disorders</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of thymic disorders decreases the likelihood of Myasthenia gravis, as these conditions are often associated with it.</t>
+          <t>Myasthenia gravis is less common in males, which decreases the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of other autoimmune disorders in the patient</t>
+          <t>Caucasian ethnicity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Individuals with one autoimmune disorder are at higher risk for developing others, including Myasthenia gravis.</t>
+          <t>Certain ethnic groups, such as Caucasians, have a higher prevalence of Myasthenia gravis, which can increase the likelihood of the disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No other autoimmune disorders present</t>
+          <t>Non-Caucasian ethnicity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of other autoimmune conditions suggests a lower risk for developing Myasthenia gravis.</t>
+          <t>Certain ethnic groups have a lower prevalence of Myasthenia gravis, which can decrease the likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Age and gender demographics aligning with typical Myasthenia gravis presentation</t>
+          <t>History of thymic abnormalities in family</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myasthenia gravis is more common in women under 40 and men over 60, so demographic alignment supports the diagnosis.</t>
+          <t>Thymic abnormalities, such as thymomas, are associated with Myasthenia gravis, and a family history can suggest a genetic link.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stable health with no significant fatigue or weakness</t>
+          <t>No history of thymic abnormalities in family</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A stable health status without symptoms of fatigue or weakness is contrary to the typical presentation of Myasthenia gravis.</t>
+          <t>The absence of thymic abnormalities in the family history reduces the likelihood of Myasthenia gravis, which is often associated with thymic issues.</t>
         </is>
       </c>
     </row>
@@ -915,34 +915,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ptosis (drooping of one or both eyelids)</t>
+          <t>Ptosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ptosis is a common and specific finding in Myasthenia gravis, often worsening with fatigue, which supports the diagnosis.</t>
+          <t>Ptosis, or drooping of the eyelids, is a common and specific finding in Myasthenia gravis due to weakness of the levator palpebrae muscles.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal muscle strength in the absence of fatigue</t>
+          <t>Normal muscle strength on repeated testing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal muscle strength during a physical exam suggests that Myasthenia gravis is unlikely, as it typically presents with weakness.</t>
+          <t>Normal muscle strength on repeated testing suggests the absence of the characteristic fatigability seen in Myasthenia gravis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diplopia (double vision)</t>
+          <t>Diplopia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diplopia is frequently reported in Myasthenia gravis patients due to ocular muscle weakness, making it a strong indicator of the condition.</t>
+          <t>Diplopia, or double vision, occurs frequently in Myasthenia gravis due to extraocular muscle weakness.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The lack of ocular symptoms such as ptosis or diplopia makes Myasthenia gravis less likely, as these are common initial presentations.</t>
+          <t>The absence of ocular symptoms such as ptosis or diplopia is less consistent with Myasthenia gravis, which often presents with these symptoms.</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The characteristic muscle fatigue and weakness that worsens with exertion is a hallmark of Myasthenia gravis.</t>
+          <t>Muscle weakness that worsens with activity and improves with rest is characteristic of Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal deep tendon reflexes</t>
+          <t>No change in muscle strength with rest</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal deep tendon reflexes indicate intact neuromuscular function, which is inconsistent with Myasthenia gravis.</t>
+          <t>In Myasthenia gravis, muscle strength typically improves with rest, so no change suggests another diagnosis.</t>
         </is>
       </c>
     </row>
@@ -986,39 +986,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Weakness in facial muscles, leading to a mask-like expression, is a common physical exam finding in Myasthenia gravis.</t>
+          <t>Weakness of facial muscles, leading to a 'myasthenic snarl' when attempting to smile, is indicative of Myasthenia gravis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of muscle atrophy</t>
+          <t>Normal reflexes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of muscle atrophy suggests that there is no chronic muscle denervation or disuse, which is atypical for Myasthenia gravis.</t>
+          <t>While reflexes are usually normal in Myasthenia gravis, the presence of abnormal reflexes might suggest an alternative neuromuscular disorder.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness</t>
+          <t>Bulbar symptoms</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weakness in proximal muscles (like those in the shoulders and hips) is often seen in Myasthenia gravis, supporting the diagnosis.</t>
+          <t>Bulbar symptoms such as dysarthria and dysphagia are common in Myasthenia gravis due to involvement of bulbar muscles.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal respiratory function</t>
+          <t>No bulbar symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal respiratory function on examination indicates that there is no significant weakness of respiratory muscles, which can occur in Myasthenia gravis.</t>
+          <t>The absence of bulbar symptoms such as dysarthria or dysphagia is less typical for Myasthenia gravis, which often involves these muscles.</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This test is highly specific for Myasthenia gravis, as the presence of these antibodies is found in a significant proportion of patients with the condition.</t>
+          <t>This test is highly specific for Myasthenia gravis, as these antibodies are present in a significant majority of patients with the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A negative result for this highly specific test significantly reduces the likelihood of Myasthenia gravis.</t>
+          <t>A negative result significantly reduces the likelihood of Myasthenia gravis, as these antibodies are present in most patients with the condition.</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of antibodies against muscle-specific kinase (MuSK) is associated with a subset of Myasthenia gravis patients, particularly those who are AChR antibody negative.</t>
+          <t>The presence of anti-MuSK antibodies is specific to a subset of Myasthenia gravis patients, particularly those who are negative for acetylcholine receptor antibodies.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,73 +1103,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal result on this test suggests that there is no neuromuscular transmission defect, making Myasthenia gravis unlikely.</t>
+          <t>A normal result on this test suggests that neuromuscular transmission is intact, which is less consistent with Myasthenia gravis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Repetitive nerve stimulation test showing decremental response</t>
+          <t>Positive edrophonium test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This test demonstrates a characteristic decrement in muscle response with repeated stimulation, which is indicative of Myasthenia gravis.</t>
+          <t>The edrophonium test, which involves the administration of a short-acting acetylcholinesterase inhibitor, is highly specific for Myasthenia gravis when it results in a temporary improvement in muscle strength.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal single fiber electromyography</t>
+          <t>Negative anti-MuSK antibody test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal findings on single fiber EMG indicate that there is no significant neuromuscular transmission issue, which argues against Myasthenia gravis.</t>
+          <t>While not definitive, a negative anti-MuSK antibody test reduces the likelihood of Myasthenia gravis in patients who are also negative for acetylcholine receptor antibodies.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Single fiber electromyography showing increased jitter</t>
+          <t>Decremental response on repetitive nerve stimulation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Increased jitter on single fiber EMG is a sensitive indicator of neuromuscular transmission defects seen in Myasthenia gravis.</t>
+          <t>A decremental response on repetitive nerve stimulation is a classic electrophysiological finding in Myasthenia gravis, indicating impaired neuromuscular transmission.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative anti-MuSK antibody test</t>
+          <t>Normal single-fiber electromyography (SFEMG)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative result for MuSK antibodies suggests that the patient is less likely to have Myasthenia gravis, especially in AChR negative cases.</t>
+          <t>A normal SFEMG result, particularly in the presence of symptoms, argues against Myasthenia gravis due to its high sensitivity for the condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT scan showing thymoma or thymic hyperplasia</t>
+          <t>Single-fiber electromyography (SFEMG) showing increased jitter</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of a thymoma or thymic hyperplasia on imaging is associated with Myasthenia gravis and supports the diagnosis.</t>
+          <t>Increased jitter on SFEMG is highly sensitive and specific for Myasthenia gravis, reflecting neuromuscular transmission defects.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No evidence of thymoma or thymic hyperplasia on CT scan</t>
+          <t>Negative edrophonium test</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of these findings on imaging reduces the likelihood of Myasthenia gravis, as they are commonly associated with the condition.</t>
+          <t>A negative edrophonium test, where no improvement in muscle strength is observed, suggests that Myasthenia gravis is less likely.</t>
         </is>
       </c>
     </row>
